--- a/SourceDataTables/FigS1.xlsx
+++ b/SourceDataTables/FigS1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="6">
   <si>
     <t>PC1_score</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -73,11 +73,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -93,6 +105,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,22 +138,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SourceDataTables/FigS1.xlsx
+++ b/SourceDataTables/FigS1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>PC1_score</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -85,11 +85,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -117,6 +121,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,22 +146,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
